--- a/LLM_Risk_Data.xlsx
+++ b/LLM_Risk_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shevyapanda/Desktop/personalprojects/PALS_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491C0598-DB9D-4340-91A2-608853D2E768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C523CF5-0D86-DF4F-A0E8-BE6D327CE2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="1360" windowWidth="20720" windowHeight="15180" xr2:uid="{DDD7486F-A901-6A4D-BF40-4E7AF05872C1}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>Patient_ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> Risk_Score</t>
+    <t>Risk_Score</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
